--- a/dist/template.xlsx
+++ b/dist/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHome\ws-github\csvintoexcel\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099FD8A0-ACF1-41D1-8BD0-112933B5BCF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FFAD07-B41B-41BD-8B7A-254213FA0A6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{61C264D4-E676-4BA5-A77A-185EE75A4B25}"/>
   </bookViews>
@@ -30,33 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Josemar Silva</t>
-  </si>
-  <si>
-    <t>Maria do Carmo</t>
-  </si>
-  <si>
-    <t>Maria Stela</t>
-  </si>
-  <si>
-    <t>Guilherme</t>
-  </si>
-  <si>
-    <t>Gabriele</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Paulo</t>
-  </si>
-  <si>
-    <t>José</t>
   </si>
   <si>
     <t>Col-A(Int)</t>
@@ -81,10 +57,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +72,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,18 +118,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F90794C-5C2F-416A-AE61-3811430F8DE1}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,28 +456,29 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,7 +486,6 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>A2/100+A2</f>
         <v>1.01</v>
       </c>
       <c r="C2" s="2">
@@ -506,224 +494,11 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <f>C2</f>
-        <v>25318</v>
+      <c r="E2" s="5">
+        <v>123456789012345</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F10" si="0">PI()*(ROW()-1)</f>
         <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B11" si="1">A3/100+A3</f>
-        <v>2.02</v>
-      </c>
-      <c r="C3" s="2">
-        <v>38285</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E11" si="2">C3</f>
-        <v>38285</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>6.2831853071795862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="1"/>
-        <v>3.03</v>
-      </c>
-      <c r="C4" s="2">
-        <v>14082</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="2"/>
-        <v>14082</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>9.4247779607693793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.04</v>
-      </c>
-      <c r="C5" s="2">
-        <v>26587</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
-        <v>26587</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>12.566370614359172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="1"/>
-        <v>5.05</v>
-      </c>
-      <c r="C6" s="2">
-        <v>33991</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="2"/>
-        <v>33991</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>15.707963267948966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="1"/>
-        <v>6.06</v>
-      </c>
-      <c r="C7" s="2">
-        <v>37118</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="2"/>
-        <v>37118</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>18.849555921538759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="1"/>
-        <v>7.07</v>
-      </c>
-      <c r="C8" s="2">
-        <f>C2</f>
-        <v>25318</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="2"/>
-        <v>25318</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>21.991148575128552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="1"/>
-        <v>8.08</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ref="C9:C11" si="3">C3</f>
-        <v>38285</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="2"/>
-        <v>38285</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>25.132741228718345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="1"/>
-        <v>9.09</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="3"/>
-        <v>14082</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
-        <v>14082</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>28.274333882308138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="1"/>
-        <v>10.1</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="3"/>
-        <v>26587</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>26587</v>
-      </c>
-      <c r="F11" s="3">
-        <f>PI()*(ROW()-1)</f>
-        <v>31.415926535897931</v>
       </c>
     </row>
   </sheetData>
